--- a/medicine/Enfance/Donald_Alarie/Donald_Alarie.xlsx
+++ b/medicine/Enfance/Donald_Alarie/Donald_Alarie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donald Alarie est un écrivain, enseignant et poète québécois né à Montréal en 1945.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à la faculté des lettres de l'Université de Montréal. Il devient ensuite professeur au Cégep de Joliette de 1971 à 1997.
 Il a collaboré à plusieurs revues, dont Moebius, Liberté, Le Sabord, Combats, Estuaire, Brèves littéraires, XYZ et La Poésie au Québec.
@@ -545,15 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-1977 - La Rétrospection, ou, Vingt-quatre heures dans la vie d'un passant', éd.Pierre Tisseyre
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1977 - La Rétrospection, ou, Vingt-quatre heures dans la vie d'un passant', éd.Pierre Tisseyre
 1983 - La Vie d'hôtel en automne, éd. Pierre Tisseyre
 1999 - Tu crois que ça va durer?, éd. XYZ
 2008 - David et les autres, éd. XYZ
 2010 - Thomas est de retour, éd. XYZ
-2011 - J'attends ton appel, éd. XYZ
-Recueils de nouvelles
-1979 - La Visiteuse', éd. APLM
+2011 - J'attends ton appel, éd. XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1979 - La Visiteuse', éd. APLM
 1980 - Jérôme et les mots, éd. Pierre Tisseyre
 1986 - Un homme paisible, éd. Pierre Tisseyre
 1995 - Les Figurants, éd. Pierre Tisseyre
@@ -562,9 +615,43 @@
 2016 - Le Hasard des rencontres (nouvelles), éd. La Pleine Lune
 2017 - Puis nous nous sommes perdus de vue, éd. La Pleine Lune
 2021- Sa valise ne contient qu'un seul souvenir, novella, éd La Pleine Lune
-2024-Tous ces gens que l'on croise, nouvelles, éd La Pleine Lune
-Poésie
-1987 - Petits Formats, éd. Écrits des Forges
+2024-Tous ces gens que l'on croise, nouvelles, éd La Pleine Lune</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1987 - Petits Formats, éd. Écrits des Forges
 1990 - La Terre comme un dessin inachevé, éd. Écrits des Forges
 1990 - Au cru du vent, éd. Écrits des Forges (avec Bernard Pozier)
 1993 - Parfois même la beauté, éd. Écrits des Forges / Le Dé bleu
@@ -577,39 +664,109 @@
 2014 - À domicile, éd. Écrits des Forges
 2018- Arpenteur du quotidien, Écrits des Forges
 2020- Ce nouveau territoire de ma vie ou La beauté du doute, en version numérique (chez l'auteur)
-2023-Paysages intérieurs, poésie (en collaboration avec le sculpteur François Lauzier), Éd. Bell'Arte
-Littérature d'enfance et de jeunesse
-1992 - Comme un lièvre pris au piège, éd. Pierre Tisseyre
-Essai
-2010 - Comme on joue du piano, éd.Trois-Pistoles</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+2023-Paysages intérieurs, poésie (en collaboration avec le sculpteur François Lauzier), Éd. Bell'Arte</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Donald_Alarie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Donald_Alarie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1992 - Comme un lièvre pris au piège, éd. Pierre Tisseyre</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2010 - Comme on joue du piano, éd.Trois-Pistoles</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donald_Alarie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">1978 - Prix Gibson
 1980 - Prix Jean-Béraud-Molson pour Jérôme et les mots
